--- a/BW2/Aufgabe 7/Informationsintensitätsmatrix.xlsx
+++ b/BW2/Aufgabe 7/Informationsintensitätsmatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\git\ws2018\BW2\Aufgabe 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278AC8E4-718F-4012-B1CE-AEACDF43D212}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84B4C94-D197-4288-9857-E047E7C09E2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="10545" xr2:uid="{D2DE2FF5-3462-46E8-BF54-E696425AF6FF}"/>
   </bookViews>
@@ -96,13 +96,13 @@
     <t>Intensität</t>
   </si>
   <si>
-    <t>Intensität Produkt</t>
-  </si>
-  <si>
     <t>Intensität Erstellungsprozess</t>
   </si>
   <si>
     <t>Gesamtintensität (1 niedrig - 3 hoch)</t>
+  </si>
+  <si>
+    <t>Intesität Produkt</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,11 +166,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,17 +190,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,6 +211,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,7 +367,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8D8BE200-F50F-4878-8843-CF0FF06EC469}</c15:txfldGUID>
+                      <c15:txfldGUID>{81F9287E-3E51-406E-AF0D-DAAA4A3E8DD4}</c15:txfldGUID>
                       <c15:f>Tabelle1!$H$3</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -399,7 +413,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E6A24013-0B77-429C-A8E0-F2F0D875D911}</c15:txfldGUID>
+                      <c15:txfldGUID>{4D2C7D8E-5000-4C73-BA77-47E1768C2AC1}</c15:txfldGUID>
                       <c15:f>Tabelle1!$H$4</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -445,7 +459,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CDA27EA6-4D05-4F88-9775-CED25627A25F}</c15:txfldGUID>
+                      <c15:txfldGUID>{B6C0849E-AA15-4D37-AFDF-255971A35BD3}</c15:txfldGUID>
                       <c15:f>Tabelle1!$H$5</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -491,7 +505,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2CE1675A-EF3F-4E2B-BF21-96776CFE6A5D}</c15:txfldGUID>
+                      <c15:txfldGUID>{759745BD-7E7E-4001-84FD-BB855E0EA6A7}</c15:txfldGUID>
                       <c15:f>Tabelle1!$H$6</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -640,7 +654,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Informationsintensität Erstellungsprozess</a:t>
+                  <a:t>Informationsintensität Produkt</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -745,7 +759,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Informationsintensität Produkt</a:t>
+                  <a:t>Informationsintensität Erstellungsprozess</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2004,7 +2018,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,20 +2033,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="H1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2056,16 +2070,16 @@
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="J2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2099,10 +2113,10 @@
         <f>SUM(B10:E10)</f>
         <v>10</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="9">
         <v>1</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2136,10 +2150,10 @@
         <f t="shared" ref="J4:J6" si="0">SUM(B11:E11)</f>
         <v>8</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="9">
         <v>2</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2173,10 +2187,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="9">
         <v>3</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2212,103 +2226,103 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>3</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
